--- a/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-205_論理データモデル定義(サンプル＆ガイド).xlsx
+++ b/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-205_論理データモデル定義(サンプル＆ガイド).xlsx
@@ -1817,16 +1817,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2004,6 +1994,13 @@
   </si>
   <si>
     <t>・・・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4894,9 +4891,7 @@
       <c r="G31" s="15"/>
       <c r="H31" s="12"/>
       <c r="J31" s="16"/>
-      <c r="R31" s="17" t="s">
-        <v>189</v>
-      </c>
+      <c r="R31" s="17"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="12"/>
@@ -4936,20 +4931,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="24" t="s">
         <v>190</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>191</v>
       </c>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="22"/>
       <c r="R39" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S39" s="21"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5424,7 +5423,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -5453,7 +5452,7 @@
     </row>
     <row r="3" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5956,7 +5955,7 @@
       <c r="G31" s="33"/>
       <c r="H31" s="34"/>
       <c r="I31" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J31" s="33"/>
       <c r="K31" s="33"/>
@@ -5998,7 +5997,7 @@
       <c r="G32" s="33"/>
       <c r="H32" s="34"/>
       <c r="I32" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
@@ -6040,7 +6039,7 @@
       <c r="G33" s="33"/>
       <c r="H33" s="34"/>
       <c r="I33" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J33" s="33"/>
       <c r="K33" s="33"/>
@@ -6186,7 +6185,7 @@
       <c r="G43" s="33"/>
       <c r="H43" s="34"/>
       <c r="I43" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J43" s="33"/>
       <c r="K43" s="33"/>
@@ -6228,7 +6227,7 @@
       <c r="G44" s="33"/>
       <c r="H44" s="34"/>
       <c r="I44" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
@@ -6576,7 +6575,7 @@
       <c r="G57" s="33"/>
       <c r="H57" s="34"/>
       <c r="I57" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J57" s="33"/>
       <c r="K57" s="33"/>
@@ -6922,7 +6921,7 @@
       <c r="G70" s="33"/>
       <c r="H70" s="34"/>
       <c r="I70" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J70" s="33"/>
       <c r="K70" s="33"/>
@@ -6964,7 +6963,7 @@
       <c r="G71" s="33"/>
       <c r="H71" s="34"/>
       <c r="I71" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J71" s="33"/>
       <c r="K71" s="33"/>
@@ -9030,7 +9029,7 @@
     </row>
     <row r="22" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="59" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C22" s="60"/>
       <c r="D22" s="61"/>

--- a/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-205_論理データモデル定義(サンプル＆ガイド).xlsx
+++ b/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-205_論理データモデル定義(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F71FB04-F225-4583-96A6-981EED6B37EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="10575" windowHeight="5670"/>
+    <workbookView xWindow="9660" yWindow="6030" windowWidth="18150" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="8" r:id="rId1"/>
@@ -29,12 +30,22 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'サンプル（コード定義）'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'サンプル（ドメイン定義）'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="199">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -1817,17 +1828,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
-  </si>
-  <si>
     <t>エンティティの種別（リソース、イベント、サマリ）を記述する。</t>
     <rPh sb="7" eb="9">
       <t>シュベツ</t>
@@ -1994,20 +1994,13 @@
   </si>
   <si>
     <t>・・・</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -2593,14 +2586,35 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2614,6 +2628,12 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2622,6 +2642,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2632,38 +2655,14 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2673,6 +2672,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2693,36 +2710,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2730,15 +2717,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2750,13 +2728,19 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2766,6 +2750,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2787,36 +2810,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2897,6 +2890,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2918,7 +2914,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3016,52 +3018,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3082,7 +3038,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3169,7 +3131,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3255,7 +3223,13 @@
     <xdr:ext cx="1313180" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3319,7 +3293,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3406,7 +3386,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="カギ線コネクタ 29"/>
+        <xdr:cNvPr id="30" name="カギ線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="26" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -3451,7 +3437,13 @@
     <xdr:ext cx="1518364" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3528,7 +3520,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3606,7 +3604,13 @@
     <xdr:ext cx="902811" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3670,7 +3674,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3757,7 +3767,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="カギ線コネクタ 36"/>
+        <xdr:cNvPr id="37" name="カギ線コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="36" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -3802,7 +3818,13 @@
     <xdr:ext cx="1415772" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3879,7 +3901,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3961,7 +3989,13 @@
     <xdr:ext cx="1313180" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4038,7 +4072,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4120,7 +4160,13 @@
     <xdr:ext cx="1313180" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4197,7 +4243,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="カギ線コネクタ 32"/>
+        <xdr:cNvPr id="33" name="カギ線コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="27" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -4247,7 +4299,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="カギ線コネクタ 33"/>
+        <xdr:cNvPr id="34" name="カギ線コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="31" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -4297,7 +4355,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -4347,7 +4411,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="23" idx="1"/>
@@ -4397,7 +4467,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4435,7 +4511,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4478,7 +4560,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4511,7 +4599,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4553,7 +4641,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4586,9 +4674,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4621,6 +4726,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4796,7 +4918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4905,58 +5027,47 @@
       <c r="R32" s="20"/>
       <c r="S32" s="21"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="22"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="22"/>
       <c r="R37" s="21"/>
       <c r="S37" s="23"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="22"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="22"/>
       <c r="R38" s="21"/>
       <c r="S38" s="22"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>190</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="24"/>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="22"/>
-      <c r="R39" s="22" t="s">
-        <v>191</v>
-      </c>
+      <c r="R39" s="22"/>
       <c r="S39" s="21"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5419,17 +5530,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5452,7 +5560,7 @@
     </row>
     <row r="3" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5681,87 +5789,87 @@
       <c r="B20" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="35" t="s">
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="41" t="s">
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="51" t="s">
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="51"/>
-      <c r="AG20" s="51"/>
-      <c r="AH20" s="51"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="58"/>
     </row>
     <row r="21" spans="2:34" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B21" s="30">
         <v>1</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="45" t="s">
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="39"/>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="39"/>
-      <c r="AH21" s="40"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="47"/>
     </row>
     <row r="22" spans="2:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="31">
@@ -5791,12 +5899,12 @@
       <c r="S22" s="33"/>
       <c r="T22" s="33"/>
       <c r="U22" s="34"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="50"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="40"/>
       <c r="AB22" s="32"/>
       <c r="AC22" s="33"/>
       <c r="AD22" s="33"/>
@@ -5833,19 +5941,19 @@
       <c r="S23" s="33"/>
       <c r="T23" s="33"/>
       <c r="U23" s="34"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="53"/>
-      <c r="AD23" s="53"/>
-      <c r="AE23" s="53"/>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="54"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="37"/>
     </row>
     <row r="24" spans="2:34" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="31">
@@ -5875,12 +5983,12 @@
       <c r="S24" s="33"/>
       <c r="T24" s="33"/>
       <c r="U24" s="34"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="50"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="40"/>
       <c r="AB24" s="32"/>
       <c r="AC24" s="33"/>
       <c r="AD24" s="33"/>
@@ -5903,44 +6011,44 @@
       <c r="B30" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="35" t="s">
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="35" t="s">
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="36"/>
-      <c r="AG30" s="36"/>
-      <c r="AH30" s="37"/>
+      <c r="AA30" s="49"/>
+      <c r="AB30" s="49"/>
+      <c r="AC30" s="49"/>
+      <c r="AD30" s="49"/>
+      <c r="AE30" s="49"/>
+      <c r="AF30" s="49"/>
+      <c r="AG30" s="49"/>
+      <c r="AH30" s="50"/>
     </row>
     <row r="31" spans="2:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B31" s="31">
@@ -5955,7 +6063,7 @@
       <c r="G31" s="33"/>
       <c r="H31" s="34"/>
       <c r="I31" s="32" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J31" s="33"/>
       <c r="K31" s="33"/>
@@ -5997,7 +6105,7 @@
       <c r="G32" s="33"/>
       <c r="H32" s="34"/>
       <c r="I32" s="32" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
@@ -6039,7 +6147,7 @@
       <c r="G33" s="33"/>
       <c r="H33" s="34"/>
       <c r="I33" s="32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J33" s="33"/>
       <c r="K33" s="33"/>
@@ -6057,7 +6165,7 @@
       <c r="W33" s="33"/>
       <c r="X33" s="33"/>
       <c r="Y33" s="34"/>
-      <c r="Z33" s="58"/>
+      <c r="Z33" s="44"/>
       <c r="AA33" s="33"/>
       <c r="AB33" s="33"/>
       <c r="AC33" s="33"/>
@@ -6133,44 +6241,44 @@
       <c r="B42" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="35" t="s">
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="36"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="35" t="s">
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
+      <c r="U42" s="49"/>
+      <c r="V42" s="49"/>
+      <c r="W42" s="49"/>
+      <c r="X42" s="49"/>
+      <c r="Y42" s="50"/>
+      <c r="Z42" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AA42" s="36"/>
-      <c r="AB42" s="36"/>
-      <c r="AC42" s="36"/>
-      <c r="AD42" s="36"/>
-      <c r="AE42" s="36"/>
-      <c r="AF42" s="36"/>
-      <c r="AG42" s="36"/>
-      <c r="AH42" s="37"/>
+      <c r="AA42" s="49"/>
+      <c r="AB42" s="49"/>
+      <c r="AC42" s="49"/>
+      <c r="AD42" s="49"/>
+      <c r="AE42" s="49"/>
+      <c r="AF42" s="49"/>
+      <c r="AG42" s="49"/>
+      <c r="AH42" s="50"/>
     </row>
     <row r="43" spans="2:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B43" s="31">
@@ -6185,7 +6293,7 @@
       <c r="G43" s="33"/>
       <c r="H43" s="34"/>
       <c r="I43" s="32" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J43" s="33"/>
       <c r="K43" s="33"/>
@@ -6227,7 +6335,7 @@
       <c r="G44" s="33"/>
       <c r="H44" s="34"/>
       <c r="I44" s="32" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
@@ -6481,44 +6589,44 @@
       <c r="B55" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="35" t="s">
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="36"/>
-      <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="37"/>
-      <c r="Z55" s="35" t="s">
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="49"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="49"/>
+      <c r="S55" s="49"/>
+      <c r="T55" s="49"/>
+      <c r="U55" s="49"/>
+      <c r="V55" s="49"/>
+      <c r="W55" s="49"/>
+      <c r="X55" s="49"/>
+      <c r="Y55" s="50"/>
+      <c r="Z55" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AA55" s="36"/>
-      <c r="AB55" s="36"/>
-      <c r="AC55" s="36"/>
-      <c r="AD55" s="36"/>
-      <c r="AE55" s="36"/>
-      <c r="AF55" s="36"/>
-      <c r="AG55" s="36"/>
-      <c r="AH55" s="37"/>
+      <c r="AA55" s="49"/>
+      <c r="AB55" s="49"/>
+      <c r="AC55" s="49"/>
+      <c r="AD55" s="49"/>
+      <c r="AE55" s="49"/>
+      <c r="AF55" s="49"/>
+      <c r="AG55" s="49"/>
+      <c r="AH55" s="50"/>
     </row>
     <row r="56" spans="2:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B56" s="31">
@@ -6575,7 +6683,7 @@
       <c r="G57" s="33"/>
       <c r="H57" s="34"/>
       <c r="I57" s="32" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J57" s="33"/>
       <c r="K57" s="33"/>
@@ -6869,44 +6977,44 @@
       <c r="B69" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="35" t="s">
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="36"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="36"/>
-      <c r="W69" s="36"/>
-      <c r="X69" s="36"/>
-      <c r="Y69" s="37"/>
-      <c r="Z69" s="35" t="s">
+      <c r="J69" s="49"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="49"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="49"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="49"/>
+      <c r="T69" s="49"/>
+      <c r="U69" s="49"/>
+      <c r="V69" s="49"/>
+      <c r="W69" s="49"/>
+      <c r="X69" s="49"/>
+      <c r="Y69" s="50"/>
+      <c r="Z69" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AA69" s="36"/>
-      <c r="AB69" s="36"/>
-      <c r="AC69" s="36"/>
-      <c r="AD69" s="36"/>
-      <c r="AE69" s="36"/>
-      <c r="AF69" s="36"/>
-      <c r="AG69" s="36"/>
-      <c r="AH69" s="37"/>
+      <c r="AA69" s="49"/>
+      <c r="AB69" s="49"/>
+      <c r="AC69" s="49"/>
+      <c r="AD69" s="49"/>
+      <c r="AE69" s="49"/>
+      <c r="AF69" s="49"/>
+      <c r="AG69" s="49"/>
+      <c r="AH69" s="50"/>
     </row>
     <row r="70" spans="1:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="31">
@@ -6921,7 +7029,7 @@
       <c r="G70" s="33"/>
       <c r="H70" s="34"/>
       <c r="I70" s="32" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J70" s="33"/>
       <c r="K70" s="33"/>
@@ -6963,7 +7071,7 @@
       <c r="G71" s="33"/>
       <c r="H71" s="34"/>
       <c r="I71" s="32" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J71" s="33"/>
       <c r="K71" s="33"/>
@@ -7124,6 +7232,86 @@
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="I73:Y73"/>
+    <mergeCell ref="Z73:AH73"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="I74:Y74"/>
+    <mergeCell ref="Z74:AH74"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="I71:Y71"/>
+    <mergeCell ref="Z71:AH71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="I72:Y72"/>
+    <mergeCell ref="Z72:AH72"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="I69:Y69"/>
+    <mergeCell ref="Z69:AH69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="I70:Y70"/>
+    <mergeCell ref="Z70:AH70"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="I62:Y62"/>
+    <mergeCell ref="Z62:AH62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="I63:Y63"/>
+    <mergeCell ref="Z63:AH63"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="I60:Y60"/>
+    <mergeCell ref="Z60:AH60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="I61:Y61"/>
+    <mergeCell ref="Z61:AH61"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="I58:Y58"/>
+    <mergeCell ref="Z58:AH58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="I59:Y59"/>
+    <mergeCell ref="Z59:AH59"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:Y56"/>
+    <mergeCell ref="Z56:AH56"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:Y46"/>
+    <mergeCell ref="Z46:AH46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:Y47"/>
+    <mergeCell ref="Z47:AH47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:Y48"/>
+    <mergeCell ref="Z48:AH48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:Y49"/>
+    <mergeCell ref="Z49:AH49"/>
+    <mergeCell ref="I45:Y45"/>
+    <mergeCell ref="Z45:AH45"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I42:Y42"/>
+    <mergeCell ref="Z42:AH42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="I43:Y43"/>
+    <mergeCell ref="Z43:AH43"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:Y55"/>
+    <mergeCell ref="Z55:AH55"/>
+    <mergeCell ref="AB21:AH21"/>
+    <mergeCell ref="V20:AA20"/>
+    <mergeCell ref="V21:AA21"/>
+    <mergeCell ref="I20:U20"/>
+    <mergeCell ref="I21:U21"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="I30:Y30"/>
+    <mergeCell ref="Z30:AH30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="I31:Y31"/>
+    <mergeCell ref="Z31:AH31"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="AB24:AH24"/>
+    <mergeCell ref="V24:AA24"/>
+    <mergeCell ref="I24:U24"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="AB20:AH20"/>
+    <mergeCell ref="C21:H21"/>
     <mergeCell ref="C57:H57"/>
     <mergeCell ref="I57:Y57"/>
     <mergeCell ref="Z57:AH57"/>
@@ -7148,86 +7336,6 @@
     <mergeCell ref="I44:Y44"/>
     <mergeCell ref="Z44:AH44"/>
     <mergeCell ref="C45:H45"/>
-    <mergeCell ref="AB21:AH21"/>
-    <mergeCell ref="V20:AA20"/>
-    <mergeCell ref="V21:AA21"/>
-    <mergeCell ref="I20:U20"/>
-    <mergeCell ref="I21:U21"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="I30:Y30"/>
-    <mergeCell ref="Z30:AH30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="I31:Y31"/>
-    <mergeCell ref="Z31:AH31"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="AB24:AH24"/>
-    <mergeCell ref="V24:AA24"/>
-    <mergeCell ref="I24:U24"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="AB20:AH20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I45:Y45"/>
-    <mergeCell ref="Z45:AH45"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:Y42"/>
-    <mergeCell ref="Z42:AH42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="I43:Y43"/>
-    <mergeCell ref="Z43:AH43"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:Y55"/>
-    <mergeCell ref="Z55:AH55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:Y56"/>
-    <mergeCell ref="Z56:AH56"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:Y46"/>
-    <mergeCell ref="Z46:AH46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:Y47"/>
-    <mergeCell ref="Z47:AH47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:Y48"/>
-    <mergeCell ref="Z48:AH48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:Y49"/>
-    <mergeCell ref="Z49:AH49"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="I60:Y60"/>
-    <mergeCell ref="Z60:AH60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="I61:Y61"/>
-    <mergeCell ref="Z61:AH61"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="I58:Y58"/>
-    <mergeCell ref="Z58:AH58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="I59:Y59"/>
-    <mergeCell ref="Z59:AH59"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="I69:Y69"/>
-    <mergeCell ref="Z69:AH69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="I70:Y70"/>
-    <mergeCell ref="Z70:AH70"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="I62:Y62"/>
-    <mergeCell ref="Z62:AH62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="I63:Y63"/>
-    <mergeCell ref="Z63:AH63"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="I73:Y73"/>
-    <mergeCell ref="Z73:AH73"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="I74:Y74"/>
-    <mergeCell ref="Z74:AH74"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="I71:Y71"/>
-    <mergeCell ref="Z71:AH71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="I72:Y72"/>
-    <mergeCell ref="Z72:AH72"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -7246,7 +7354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -7278,7 +7386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:AH23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -7294,749 +7402,833 @@
       </c>
     </row>
     <row r="4" spans="1:34" s="7" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="72" t="s">
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71" t="s">
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="62" t="s">
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="64"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="72"/>
     </row>
     <row r="5" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="74" t="s">
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="75" t="s">
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="75"/>
-      <c r="AB5" s="65"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="67"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="75"/>
     </row>
     <row r="6" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="69" t="s">
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="70" t="s">
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="60"/>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="60"/>
-      <c r="AH6" s="61"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="63"/>
     </row>
     <row r="7" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="70" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="69" t="s">
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="70" t="s">
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="60"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="61"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="62"/>
+      <c r="AH7" s="63"/>
     </row>
     <row r="8" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="70" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="69" t="s">
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="70" t="s">
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="60"/>
-      <c r="AE8" s="60"/>
-      <c r="AF8" s="60"/>
-      <c r="AG8" s="60"/>
-      <c r="AH8" s="61"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="63"/>
     </row>
     <row r="9" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="70"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="60"/>
-      <c r="AH9" s="61"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="62"/>
+      <c r="AH9" s="63"/>
     </row>
     <row r="10" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="70"/>
-      <c r="Z10" s="70"/>
-      <c r="AA10" s="70"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="60"/>
-      <c r="AH10" s="61"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="63"/>
     </row>
     <row r="11" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="70"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="60"/>
-      <c r="AE11" s="60"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="61"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="62"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="63"/>
     </row>
     <row r="12" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="60"/>
-      <c r="AH12" s="61"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="62"/>
+      <c r="AF12" s="62"/>
+      <c r="AG12" s="62"/>
+      <c r="AH12" s="63"/>
     </row>
     <row r="13" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="60"/>
-      <c r="AE13" s="60"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="60"/>
-      <c r="AH13" s="61"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="62"/>
+      <c r="AE13" s="62"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="63"/>
     </row>
     <row r="14" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="70"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="60"/>
-      <c r="AD14" s="60"/>
-      <c r="AE14" s="60"/>
-      <c r="AF14" s="60"/>
-      <c r="AG14" s="60"/>
-      <c r="AH14" s="61"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="63"/>
     </row>
     <row r="15" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="60"/>
-      <c r="AD15" s="60"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="60"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="61"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="63"/>
     </row>
     <row r="16" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="70"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="60"/>
-      <c r="AD16" s="60"/>
-      <c r="AE16" s="60"/>
-      <c r="AF16" s="60"/>
-      <c r="AG16" s="60"/>
-      <c r="AH16" s="61"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="62"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="63"/>
     </row>
     <row r="17" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="70"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="60"/>
-      <c r="AD17" s="60"/>
-      <c r="AE17" s="60"/>
-      <c r="AF17" s="60"/>
-      <c r="AG17" s="60"/>
-      <c r="AH17" s="61"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="68"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="62"/>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="62"/>
+      <c r="AH17" s="63"/>
     </row>
     <row r="18" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
-      <c r="Z18" s="70"/>
-      <c r="AA18" s="70"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="60"/>
-      <c r="AD18" s="60"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="60"/>
-      <c r="AG18" s="60"/>
-      <c r="AH18" s="61"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="63"/>
     </row>
     <row r="19" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="70"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="70"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="60"/>
-      <c r="AD19" s="60"/>
-      <c r="AE19" s="60"/>
-      <c r="AF19" s="60"/>
-      <c r="AG19" s="60"/>
-      <c r="AH19" s="61"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="68"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="63"/>
     </row>
     <row r="20" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="70"/>
-      <c r="Y20" s="70"/>
-      <c r="Z20" s="70"/>
-      <c r="AA20" s="70"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="60"/>
-      <c r="AD20" s="60"/>
-      <c r="AE20" s="60"/>
-      <c r="AF20" s="60"/>
-      <c r="AG20" s="60"/>
-      <c r="AH20" s="61"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="63"/>
     </row>
     <row r="21" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="70"/>
-      <c r="Z21" s="70"/>
-      <c r="AA21" s="70"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="60"/>
-      <c r="AE21" s="60"/>
-      <c r="AF21" s="60"/>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="61"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="63"/>
     </row>
     <row r="22" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="70"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="60"/>
-      <c r="AD22" s="60"/>
-      <c r="AE22" s="60"/>
-      <c r="AF22" s="60"/>
-      <c r="AG22" s="60"/>
-      <c r="AH22" s="61"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="68"/>
+      <c r="V22" s="68"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="68"/>
+      <c r="Y22" s="68"/>
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="62"/>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="63"/>
     </row>
     <row r="23" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="70"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="70"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="70"/>
-      <c r="Y23" s="70"/>
-      <c r="Z23" s="70"/>
-      <c r="AA23" s="70"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="60"/>
-      <c r="AD23" s="60"/>
-      <c r="AE23" s="60"/>
-      <c r="AF23" s="60"/>
-      <c r="AG23" s="60"/>
-      <c r="AH23" s="61"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="68"/>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="AB21:AH21"/>
+    <mergeCell ref="AB22:AH22"/>
+    <mergeCell ref="AB10:AH10"/>
+    <mergeCell ref="AB11:AH11"/>
+    <mergeCell ref="AB12:AH12"/>
+    <mergeCell ref="AB13:AH13"/>
+    <mergeCell ref="AB19:AH19"/>
+    <mergeCell ref="AB20:AH20"/>
+    <mergeCell ref="AB17:AH17"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="AB5:AH5"/>
+    <mergeCell ref="AB6:AH6"/>
+    <mergeCell ref="AB7:AH7"/>
+    <mergeCell ref="AB8:AH8"/>
+    <mergeCell ref="AB9:AH9"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P21:AA21"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:AA17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:AA18"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:AA15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P22:AA22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="P19:AA19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="P20:AA20"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:AA8"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:AA13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:AA11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:AA12"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:AA4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="AB16:AH16"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:AA9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:AA10"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="AB14:AH14"/>
+    <mergeCell ref="AB15:AH15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="P16:AA16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:AA14"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="AB23:AH23"/>
     <mergeCell ref="E5:K5"/>
@@ -8053,90 +8245,6 @@
     <mergeCell ref="L23:O23"/>
     <mergeCell ref="P23:AA23"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="AB14:AH14"/>
-    <mergeCell ref="AB15:AH15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="P16:AA16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:AA14"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:AA4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="AB16:AH16"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:AA9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:AA10"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:AA8"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:AA13"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:AA11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:AA12"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:AA22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="P19:AA19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P20:AA20"/>
-    <mergeCell ref="AB9:AH9"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:AA21"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:AA17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:AA18"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:AA15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="AB5:AH5"/>
-    <mergeCell ref="AB6:AH6"/>
-    <mergeCell ref="AB7:AH7"/>
-    <mergeCell ref="AB8:AH8"/>
-    <mergeCell ref="AB21:AH21"/>
-    <mergeCell ref="AB22:AH22"/>
-    <mergeCell ref="AB10:AH10"/>
-    <mergeCell ref="AB11:AH11"/>
-    <mergeCell ref="AB12:AH12"/>
-    <mergeCell ref="AB13:AH13"/>
-    <mergeCell ref="AB19:AH19"/>
-    <mergeCell ref="AB20:AH20"/>
-    <mergeCell ref="AB17:AH17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -8148,7 +8256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:AH22"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -8164,1005 +8272,944 @@
       </c>
     </row>
     <row r="4" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="71" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71" t="s">
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71" t="s">
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="W4" s="71"/>
-      <c r="X4" s="72" t="s">
+      <c r="W4" s="60"/>
+      <c r="X4" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="62" t="s">
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="64"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="72"/>
     </row>
     <row r="5" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="75" t="s">
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="84" t="s">
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="75" t="s">
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="85">
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="80">
         <v>10</v>
       </c>
-      <c r="W5" s="85"/>
-      <c r="X5" s="86">
+      <c r="W5" s="80"/>
+      <c r="X5" s="81">
         <v>0</v>
       </c>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="65"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="67"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="75"/>
     </row>
     <row r="6" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="70" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="81" t="s">
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="70" t="s">
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="79" t="s">
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="W6" s="79"/>
-      <c r="X6" s="80" t="s">
+      <c r="W6" s="77"/>
+      <c r="X6" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="60"/>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="60"/>
-      <c r="AH6" s="61"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="63"/>
     </row>
     <row r="7" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="70" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="81" t="s">
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="70" t="s">
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="82" t="s">
         <v>35</v>
       </c>
       <c r="W7" s="83"/>
-      <c r="X7" s="80" t="s">
+      <c r="X7" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="60"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="61"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="62"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="62"/>
+      <c r="AH7" s="63"/>
     </row>
     <row r="8" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="70" t="s">
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="81" t="s">
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="70" t="s">
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="79">
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="77">
         <v>6</v>
       </c>
-      <c r="W8" s="79"/>
-      <c r="X8" s="80" t="s">
+      <c r="W8" s="77"/>
+      <c r="X8" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="60"/>
-      <c r="AE8" s="60"/>
-      <c r="AF8" s="60"/>
-      <c r="AG8" s="60"/>
-      <c r="AH8" s="61"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="61"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="63"/>
     </row>
     <row r="9" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="70" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="81" t="s">
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="70" t="s">
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="79">
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="77">
         <v>8</v>
       </c>
-      <c r="W9" s="79"/>
-      <c r="X9" s="80" t="s">
+      <c r="W9" s="77"/>
+      <c r="X9" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="60"/>
-      <c r="AH9" s="61"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="62"/>
+      <c r="AH9" s="63"/>
     </row>
     <row r="10" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="70" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="81" t="s">
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="70" t="s">
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="79">
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="77">
         <v>1</v>
       </c>
-      <c r="W10" s="79"/>
-      <c r="X10" s="80" t="s">
+      <c r="W10" s="77"/>
+      <c r="X10" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="59" t="s">
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="60"/>
-      <c r="AH10" s="61"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="63"/>
     </row>
     <row r="11" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="70" t="s">
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="81" t="s">
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="70" t="s">
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="79">
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="77">
         <v>1</v>
       </c>
-      <c r="W11" s="79"/>
-      <c r="X11" s="80" t="s">
+      <c r="W11" s="77"/>
+      <c r="X11" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="59" t="s">
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="60"/>
-      <c r="AE11" s="60"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="61"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="62"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="63"/>
     </row>
     <row r="12" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="70" t="s">
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="81" t="s">
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="70" t="s">
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="79">
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="77">
         <v>200</v>
       </c>
-      <c r="W12" s="79"/>
-      <c r="X12" s="80" t="s">
+      <c r="W12" s="77"/>
+      <c r="X12" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="59" t="s">
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="60"/>
-      <c r="AH12" s="61"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="62"/>
+      <c r="AF12" s="62"/>
+      <c r="AG12" s="62"/>
+      <c r="AH12" s="63"/>
     </row>
     <row r="13" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="81" t="s">
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="70" t="s">
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="79">
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="77">
         <v>1</v>
       </c>
-      <c r="W13" s="79"/>
-      <c r="X13" s="80" t="s">
+      <c r="W13" s="77"/>
+      <c r="X13" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="59" t="s">
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="60"/>
-      <c r="AE13" s="60"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="60"/>
-      <c r="AH13" s="61"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="62"/>
+      <c r="AE13" s="62"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="63"/>
     </row>
     <row r="14" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="70" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="81" t="s">
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="70" t="s">
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="79">
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="77">
         <v>1</v>
       </c>
-      <c r="W14" s="79"/>
-      <c r="X14" s="80" t="s">
+      <c r="W14" s="77"/>
+      <c r="X14" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="59" t="s">
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="60"/>
-      <c r="AD14" s="60"/>
-      <c r="AE14" s="60"/>
-      <c r="AF14" s="60"/>
-      <c r="AG14" s="60"/>
-      <c r="AH14" s="61"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="63"/>
     </row>
     <row r="15" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="70" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="81" t="s">
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="70" t="s">
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="79">
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="77">
         <v>1</v>
       </c>
-      <c r="W15" s="79"/>
-      <c r="X15" s="80" t="s">
+      <c r="W15" s="77"/>
+      <c r="X15" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="Y15" s="79"/>
-      <c r="Z15" s="59" t="s">
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="60"/>
-      <c r="AD15" s="60"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="60"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="61"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="63"/>
     </row>
     <row r="16" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="70" t="s">
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="81" t="s">
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="70" t="s">
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="79">
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="77">
         <v>25</v>
       </c>
-      <c r="W16" s="79"/>
-      <c r="X16" s="80" t="s">
+      <c r="W16" s="77"/>
+      <c r="X16" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="60"/>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="60"/>
-      <c r="AD16" s="60"/>
-      <c r="AE16" s="60"/>
-      <c r="AF16" s="60"/>
-      <c r="AG16" s="60"/>
-      <c r="AH16" s="61"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="62"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="63"/>
     </row>
     <row r="17" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="70" t="s">
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="81" t="s">
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="70" t="s">
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="79">
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="77">
         <v>25</v>
       </c>
-      <c r="W17" s="79"/>
-      <c r="X17" s="80" t="s">
+      <c r="W17" s="77"/>
+      <c r="X17" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="60"/>
-      <c r="AB17" s="60"/>
-      <c r="AC17" s="60"/>
-      <c r="AD17" s="60"/>
-      <c r="AE17" s="60"/>
-      <c r="AF17" s="60"/>
-      <c r="AG17" s="60"/>
-      <c r="AH17" s="61"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="62"/>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="62"/>
+      <c r="AH17" s="63"/>
     </row>
     <row r="18" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="70" t="s">
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="81" t="s">
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="70" t="s">
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="79">
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="77">
         <v>25</v>
       </c>
-      <c r="W18" s="79"/>
-      <c r="X18" s="80" t="s">
+      <c r="W18" s="77"/>
+      <c r="X18" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="60"/>
-      <c r="AB18" s="60"/>
-      <c r="AC18" s="60"/>
-      <c r="AD18" s="60"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="60"/>
-      <c r="AG18" s="60"/>
-      <c r="AH18" s="61"/>
+      <c r="Y18" s="77"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="63"/>
     </row>
     <row r="19" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="70" t="s">
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="81" t="s">
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="70" t="s">
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="79">
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="77">
         <v>25</v>
       </c>
-      <c r="W19" s="79"/>
-      <c r="X19" s="80" t="s">
+      <c r="W19" s="77"/>
+      <c r="X19" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="Y19" s="79"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="60"/>
-      <c r="AB19" s="60"/>
-      <c r="AC19" s="60"/>
-      <c r="AD19" s="60"/>
-      <c r="AE19" s="60"/>
-      <c r="AF19" s="60"/>
-      <c r="AG19" s="60"/>
-      <c r="AH19" s="61"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="63"/>
     </row>
     <row r="20" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="70" t="s">
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="81" t="s">
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="70" t="s">
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="79">
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="77">
         <v>7</v>
       </c>
-      <c r="W20" s="79"/>
-      <c r="X20" s="80" t="s">
+      <c r="W20" s="77"/>
+      <c r="X20" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="59" t="s">
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AA20" s="60"/>
-      <c r="AB20" s="60"/>
-      <c r="AC20" s="60"/>
-      <c r="AD20" s="60"/>
-      <c r="AE20" s="60"/>
-      <c r="AF20" s="60"/>
-      <c r="AG20" s="60"/>
-      <c r="AH20" s="61"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="63"/>
     </row>
     <row r="21" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="70" t="s">
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="81" t="s">
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="70" t="s">
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="79">
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="77">
         <v>2</v>
       </c>
-      <c r="W21" s="79"/>
-      <c r="X21" s="80" t="s">
+      <c r="W21" s="77"/>
+      <c r="X21" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="59" t="s">
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="60"/>
-      <c r="AE21" s="60"/>
-      <c r="AF21" s="60"/>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="61"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="63"/>
     </row>
     <row r="22" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="59" t="s">
+      <c r="B22" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="76" t="s">
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="70" t="s">
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="79" t="s">
+      <c r="S22" s="68"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="68"/>
+      <c r="V22" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="W22" s="79"/>
-      <c r="X22" s="80" t="s">
+      <c r="W22" s="77"/>
+      <c r="X22" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="Y22" s="79"/>
-      <c r="Z22" s="59" t="s">
+      <c r="Y22" s="77"/>
+      <c r="Z22" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="AA22" s="60"/>
-      <c r="AB22" s="60"/>
-      <c r="AC22" s="60"/>
-      <c r="AD22" s="60"/>
-      <c r="AE22" s="60"/>
-      <c r="AF22" s="60"/>
-      <c r="AG22" s="60"/>
-      <c r="AH22" s="61"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="62"/>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="133">
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:Q6"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:Q5"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:Q10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z22:AH22"/>
+    <mergeCell ref="Z16:AH16"/>
+    <mergeCell ref="Z17:AH17"/>
+    <mergeCell ref="Z18:AH18"/>
+    <mergeCell ref="Z19:AH19"/>
+    <mergeCell ref="Z20:AH20"/>
+    <mergeCell ref="Z21:AH21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
@@ -9187,30 +9234,91 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:I14"/>
-    <mergeCell ref="Z22:AH22"/>
-    <mergeCell ref="Z16:AH16"/>
-    <mergeCell ref="Z17:AH17"/>
-    <mergeCell ref="Z18:AH18"/>
-    <mergeCell ref="Z19:AH19"/>
-    <mergeCell ref="Z20:AH20"/>
-    <mergeCell ref="Z21:AH21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -9222,7 +9330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:AH23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -9246,774 +9354,902 @@
       <c r="B6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="62" t="s">
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="62" t="s">
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="71" t="s">
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71" t="s">
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71" t="s">
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71" t="s">
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="71" t="s">
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="AH6" s="71"/>
+      <c r="AH6" s="60"/>
     </row>
     <row r="7" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="90" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="65" t="s">
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="75" t="s">
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="85">
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="80">
         <v>10</v>
       </c>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="85">
+      <c r="AB7" s="80"/>
+      <c r="AC7" s="80">
         <v>0</v>
       </c>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="74" t="s">
+      <c r="AD7" s="80"/>
+      <c r="AE7" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="74">
+      <c r="AF7" s="65"/>
+      <c r="AG7" s="65">
         <v>1</v>
       </c>
-      <c r="AH7" s="74"/>
+      <c r="AH7" s="65"/>
     </row>
     <row r="8" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <v>2</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="87" t="s">
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="59" t="s">
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="70" t="s">
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="79">
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="77">
         <v>1</v>
       </c>
-      <c r="AB8" s="79"/>
-      <c r="AC8" s="79">
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77">
         <v>0</v>
       </c>
-      <c r="AD8" s="79"/>
-      <c r="AE8" s="69" t="s">
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="69"/>
-      <c r="AH8" s="69"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="67"/>
     </row>
     <row r="9" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9">
         <v>3</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="87" t="s">
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="59" t="s">
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="70" t="s">
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="79">
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="77">
         <v>1</v>
       </c>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79">
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77">
         <v>0</v>
       </c>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="69" t="s">
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="AF9" s="69"/>
-      <c r="AG9" s="69"/>
-      <c r="AH9" s="69"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="67"/>
     </row>
     <row r="10" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9">
         <v>4</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="87" t="s">
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="90" t="s">
         <v>180</v>
       </c>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="59" t="s">
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="70" t="s">
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="70"/>
-      <c r="Z10" s="70"/>
-      <c r="AA10" s="79">
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="77">
         <v>1</v>
       </c>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79">
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77">
         <v>0</v>
       </c>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="69" t="s">
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="67"/>
+      <c r="AH10" s="67"/>
     </row>
     <row r="11" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9">
         <v>5</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="87" t="s">
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="59" t="s">
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="70" t="s">
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="79" t="s">
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79" t="s">
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="69"/>
-      <c r="AF11" s="69"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="69"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="67"/>
     </row>
     <row r="12" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9">
         <v>6</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="87" t="s">
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="59" t="s">
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="70" t="s">
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="79" t="s">
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="79" t="s">
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="AD12" s="79"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="69"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="67"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="67"/>
+      <c r="AH12" s="67"/>
     </row>
     <row r="13" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
         <v>7</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="87" t="s">
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="59" t="s">
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="70" t="s">
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="79" t="s">
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="AB13" s="79"/>
-      <c r="AC13" s="79" t="s">
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="AD13" s="79"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="69"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="67"/>
+      <c r="AH13" s="67"/>
     </row>
     <row r="14" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9">
         <v>8</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="87" t="s">
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="59" t="s">
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="70" t="s">
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="79">
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="77">
         <v>200</v>
       </c>
-      <c r="AB14" s="79"/>
-      <c r="AC14" s="79">
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="77">
         <v>0</v>
       </c>
-      <c r="AD14" s="79"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="69"/>
-      <c r="AH14" s="69"/>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="67"/>
+      <c r="AF14" s="67"/>
+      <c r="AG14" s="67"/>
+      <c r="AH14" s="67"/>
     </row>
     <row r="15" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="69"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="69"/>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="69"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="69"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
+      <c r="AE15" s="67"/>
+      <c r="AF15" s="67"/>
+      <c r="AG15" s="67"/>
+      <c r="AH15" s="67"/>
     </row>
     <row r="16" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="61"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="67"/>
+      <c r="AH16" s="67"/>
     </row>
     <row r="17" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="69"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="67"/>
+      <c r="AD17" s="67"/>
+      <c r="AE17" s="67"/>
+      <c r="AF17" s="67"/>
+      <c r="AG17" s="67"/>
+      <c r="AH17" s="67"/>
     </row>
     <row r="18" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="61"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="69"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="67"/>
+      <c r="AG18" s="67"/>
+      <c r="AH18" s="67"/>
     </row>
     <row r="19" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="69"/>
-      <c r="AD19" s="69"/>
-      <c r="AE19" s="69"/>
-      <c r="AF19" s="69"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="69"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="67"/>
     </row>
     <row r="20" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="69"/>
-      <c r="AC20" s="69"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="69"/>
-      <c r="AG20" s="69"/>
-      <c r="AH20" s="69"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="67"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="67"/>
+      <c r="AC20" s="67"/>
+      <c r="AD20" s="67"/>
+      <c r="AE20" s="67"/>
+      <c r="AF20" s="67"/>
+      <c r="AG20" s="67"/>
+      <c r="AH20" s="67"/>
     </row>
     <row r="21" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="69"/>
-      <c r="AB21" s="69"/>
-      <c r="AC21" s="69"/>
-      <c r="AD21" s="69"/>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="69"/>
-      <c r="AG21" s="69"/>
-      <c r="AH21" s="69"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="67"/>
+      <c r="AC21" s="67"/>
+      <c r="AD21" s="67"/>
+      <c r="AE21" s="67"/>
+      <c r="AF21" s="67"/>
+      <c r="AG21" s="67"/>
+      <c r="AH21" s="67"/>
     </row>
     <row r="22" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="69"/>
-      <c r="AB22" s="69"/>
-      <c r="AC22" s="69"/>
-      <c r="AD22" s="69"/>
-      <c r="AE22" s="69"/>
-      <c r="AF22" s="69"/>
-      <c r="AG22" s="69"/>
-      <c r="AH22" s="69"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="67"/>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="67"/>
+      <c r="AE22" s="67"/>
+      <c r="AF22" s="67"/>
+      <c r="AG22" s="67"/>
+      <c r="AH22" s="67"/>
     </row>
     <row r="23" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="9"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="69"/>
-      <c r="Z23" s="69"/>
-      <c r="AA23" s="69"/>
-      <c r="AB23" s="69"/>
-      <c r="AC23" s="69"/>
-      <c r="AD23" s="69"/>
-      <c r="AE23" s="69"/>
-      <c r="AF23" s="69"/>
-      <c r="AG23" s="69"/>
-      <c r="AH23" s="69"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="67"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="67"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="67"/>
+      <c r="AH23" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="144">
+    <mergeCell ref="Q23:V23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I22:P22"/>
+    <mergeCell ref="I23:P23"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="Q21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="Q20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="I20:P20"/>
+    <mergeCell ref="I21:P21"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="Q19:V19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="I18:P18"/>
+    <mergeCell ref="I19:P19"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="Q17:V17"/>
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="Q16:V16"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="I17:P17"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="I15:P15"/>
+    <mergeCell ref="I14:P14"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="I12:P12"/>
+    <mergeCell ref="I13:P13"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="I11:P11"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="I8:P8"/>
+    <mergeCell ref="I9:P9"/>
     <mergeCell ref="AG6:AH6"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="Q7:V7"/>
@@ -10030,134 +10266,6 @@
     <mergeCell ref="AE6:AF6"/>
     <mergeCell ref="I6:P6"/>
     <mergeCell ref="I7:P7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="I8:P8"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="I10:P10"/>
-    <mergeCell ref="I11:P11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="I12:P12"/>
-    <mergeCell ref="I13:P13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="I15:P15"/>
-    <mergeCell ref="I14:P14"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="Q17:V17"/>
-    <mergeCell ref="W17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="Q16:V16"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="I17:P17"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="Q19:V19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="I18:P18"/>
-    <mergeCell ref="I19:P19"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="Q21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="Q20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="I20:P20"/>
-    <mergeCell ref="I21:P21"/>
-    <mergeCell ref="Q23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I22:P22"/>
-    <mergeCell ref="I23:P23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -10169,7 +10277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:AH23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -10185,865 +10293,781 @@
       </c>
     </row>
     <row r="4" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71" t="s">
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="62" t="s">
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="71" t="s">
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
     </row>
     <row r="5" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="104" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="104" t="s">
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="107">
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="96">
         <v>0</v>
       </c>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="109"/>
-      <c r="Z5" s="75" t="s">
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="AA5" s="75"/>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="75"/>
-      <c r="AD5" s="75"/>
-      <c r="AE5" s="75"/>
-      <c r="AF5" s="75"/>
-      <c r="AG5" s="75"/>
-      <c r="AH5" s="75"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
     </row>
     <row r="6" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="101"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="93">
+      <c r="B6" s="99"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="100"/>
+      <c r="S6" s="100"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="103">
         <v>1</v>
       </c>
-      <c r="W6" s="94"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="70" t="s">
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="70"/>
-      <c r="AC6" s="70"/>
-      <c r="AD6" s="70"/>
-      <c r="AE6" s="70"/>
-      <c r="AF6" s="70"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="70"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="68"/>
     </row>
     <row r="7" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100" t="s">
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100" t="s">
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102" t="s">
         <v>118</v>
       </c>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="93">
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="103">
         <v>1</v>
       </c>
-      <c r="W7" s="94"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="95"/>
-      <c r="Z7" s="70" t="s">
+      <c r="W7" s="104"/>
+      <c r="X7" s="104"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="70"/>
-      <c r="AD7" s="70"/>
-      <c r="AE7" s="70"/>
-      <c r="AF7" s="70"/>
-      <c r="AG7" s="70"/>
-      <c r="AH7" s="70"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="68"/>
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="68"/>
     </row>
     <row r="8" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="93">
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="103">
         <v>2</v>
       </c>
-      <c r="W8" s="94"/>
-      <c r="X8" s="94"/>
-      <c r="Y8" s="95"/>
-      <c r="Z8" s="70" t="s">
+      <c r="W8" s="104"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="70"/>
-      <c r="AE8" s="70"/>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="70"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="68"/>
+      <c r="AF8" s="68"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="68"/>
     </row>
     <row r="9" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100" t="s">
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100" t="s">
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="93">
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="103">
         <v>1</v>
       </c>
-      <c r="W9" s="94"/>
-      <c r="X9" s="94"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="70" t="s">
+      <c r="W9" s="104"/>
+      <c r="X9" s="104"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="AA9" s="70"/>
-      <c r="AB9" s="70"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="70"/>
-      <c r="AE9" s="70"/>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="70"/>
-      <c r="AH9" s="70"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="68"/>
     </row>
     <row r="10" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="93">
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="103">
         <v>2</v>
       </c>
-      <c r="W10" s="94"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="70" t="s">
+      <c r="W10" s="104"/>
+      <c r="X10" s="104"/>
+      <c r="Y10" s="105"/>
+      <c r="Z10" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="AA10" s="70"/>
-      <c r="AB10" s="70"/>
-      <c r="AC10" s="70"/>
-      <c r="AD10" s="70"/>
-      <c r="AE10" s="70"/>
-      <c r="AF10" s="70"/>
-      <c r="AG10" s="70"/>
-      <c r="AH10" s="70"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="68"/>
+      <c r="AF10" s="68"/>
+      <c r="AG10" s="68"/>
+      <c r="AH10" s="68"/>
     </row>
     <row r="11" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="97"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="98"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="93">
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="108"/>
+      <c r="R11" s="108"/>
+      <c r="S11" s="108"/>
+      <c r="T11" s="108"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="103">
         <v>3</v>
       </c>
-      <c r="W11" s="94"/>
-      <c r="X11" s="94"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="59" t="s">
+      <c r="W11" s="104"/>
+      <c r="X11" s="104"/>
+      <c r="Y11" s="105"/>
+      <c r="Z11" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="60"/>
-      <c r="AE11" s="60"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="61"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="62"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="63"/>
     </row>
     <row r="12" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="97"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="93">
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="108"/>
+      <c r="R12" s="108"/>
+      <c r="S12" s="108"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="109"/>
+      <c r="V12" s="103">
         <v>8</v>
       </c>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="59" t="s">
+      <c r="W12" s="104"/>
+      <c r="X12" s="104"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="60"/>
-      <c r="AH12" s="61"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="62"/>
+      <c r="AF12" s="62"/>
+      <c r="AG12" s="62"/>
+      <c r="AH12" s="63"/>
     </row>
     <row r="13" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="75"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="93">
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="103">
         <v>9</v>
       </c>
-      <c r="W13" s="94"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="70" t="s">
+      <c r="W13" s="104"/>
+      <c r="X13" s="104"/>
+      <c r="Y13" s="105"/>
+      <c r="Z13" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="70"/>
-      <c r="AE13" s="70"/>
-      <c r="AF13" s="70"/>
-      <c r="AG13" s="70"/>
-      <c r="AH13" s="70"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="68"/>
     </row>
     <row r="14" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70" t="s">
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70" t="s">
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="93" t="s">
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="W14" s="94"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="70" t="s">
+      <c r="W14" s="104"/>
+      <c r="X14" s="104"/>
+      <c r="Y14" s="105"/>
+      <c r="Z14" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="AA14" s="70"/>
-      <c r="AB14" s="70"/>
-      <c r="AC14" s="70"/>
-      <c r="AD14" s="70"/>
-      <c r="AE14" s="70"/>
-      <c r="AF14" s="70"/>
-      <c r="AG14" s="70"/>
-      <c r="AH14" s="70"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="68"/>
     </row>
     <row r="15" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="94"/>
-      <c r="X15" s="94"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="70"/>
-      <c r="AE15" s="70"/>
-      <c r="AF15" s="70"/>
-      <c r="AG15" s="70"/>
-      <c r="AH15" s="70"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="103"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="104"/>
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="68"/>
+      <c r="AH15" s="68"/>
     </row>
     <row r="16" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="70"/>
-      <c r="AB16" s="70"/>
-      <c r="AC16" s="70"/>
-      <c r="AD16" s="70"/>
-      <c r="AE16" s="70"/>
-      <c r="AF16" s="70"/>
-      <c r="AG16" s="70"/>
-      <c r="AH16" s="70"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="103"/>
+      <c r="W16" s="104"/>
+      <c r="X16" s="104"/>
+      <c r="Y16" s="105"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="68"/>
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="68"/>
+      <c r="AH16" s="68"/>
     </row>
     <row r="17" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="94"/>
-      <c r="X17" s="94"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="70"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="70"/>
-      <c r="AE17" s="70"/>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="70"/>
-      <c r="AH17" s="70"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="104"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="105"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="68"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="68"/>
+      <c r="AD17" s="68"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="68"/>
+      <c r="AG17" s="68"/>
+      <c r="AH17" s="68"/>
     </row>
     <row r="18" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="70"/>
-      <c r="AA18" s="70"/>
-      <c r="AB18" s="70"/>
-      <c r="AC18" s="70"/>
-      <c r="AD18" s="70"/>
-      <c r="AE18" s="70"/>
-      <c r="AF18" s="70"/>
-      <c r="AG18" s="70"/>
-      <c r="AH18" s="70"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="103"/>
+      <c r="W18" s="104"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="105"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="68"/>
+      <c r="AD18" s="68"/>
+      <c r="AE18" s="68"/>
+      <c r="AF18" s="68"/>
+      <c r="AG18" s="68"/>
+      <c r="AH18" s="68"/>
     </row>
     <row r="19" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="70"/>
-      <c r="AB19" s="70"/>
-      <c r="AC19" s="70"/>
-      <c r="AD19" s="70"/>
-      <c r="AE19" s="70"/>
-      <c r="AF19" s="70"/>
-      <c r="AG19" s="70"/>
-      <c r="AH19" s="70"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="103"/>
+      <c r="W19" s="104"/>
+      <c r="X19" s="104"/>
+      <c r="Y19" s="105"/>
+      <c r="Z19" s="68"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="68"/>
+      <c r="AD19" s="68"/>
+      <c r="AE19" s="68"/>
+      <c r="AF19" s="68"/>
+      <c r="AG19" s="68"/>
+      <c r="AH19" s="68"/>
     </row>
     <row r="20" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="94"/>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="70"/>
-      <c r="AA20" s="70"/>
-      <c r="AB20" s="70"/>
-      <c r="AC20" s="70"/>
-      <c r="AD20" s="70"/>
-      <c r="AE20" s="70"/>
-      <c r="AF20" s="70"/>
-      <c r="AG20" s="70"/>
-      <c r="AH20" s="70"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="103"/>
+      <c r="W20" s="104"/>
+      <c r="X20" s="104"/>
+      <c r="Y20" s="105"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="68"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="68"/>
+      <c r="AG20" s="68"/>
+      <c r="AH20" s="68"/>
     </row>
     <row r="21" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="93"/>
-      <c r="W21" s="94"/>
-      <c r="X21" s="94"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="70"/>
-      <c r="AA21" s="70"/>
-      <c r="AB21" s="70"/>
-      <c r="AC21" s="70"/>
-      <c r="AD21" s="70"/>
-      <c r="AE21" s="70"/>
-      <c r="AF21" s="70"/>
-      <c r="AG21" s="70"/>
-      <c r="AH21" s="70"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="103"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="104"/>
+      <c r="Y21" s="105"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="68"/>
+      <c r="AE21" s="68"/>
+      <c r="AF21" s="68"/>
+      <c r="AG21" s="68"/>
+      <c r="AH21" s="68"/>
     </row>
     <row r="22" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="70"/>
-      <c r="AB22" s="70"/>
-      <c r="AC22" s="70"/>
-      <c r="AD22" s="70"/>
-      <c r="AE22" s="70"/>
-      <c r="AF22" s="70"/>
-      <c r="AG22" s="70"/>
-      <c r="AH22" s="70"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="68"/>
+      <c r="V22" s="103"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="105"/>
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="68"/>
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="68"/>
+      <c r="AE22" s="68"/>
+      <c r="AF22" s="68"/>
+      <c r="AG22" s="68"/>
+      <c r="AH22" s="68"/>
     </row>
     <row r="23" spans="2:34" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="70"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="93"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="70"/>
-      <c r="AA23" s="70"/>
-      <c r="AB23" s="70"/>
-      <c r="AC23" s="70"/>
-      <c r="AD23" s="70"/>
-      <c r="AE23" s="70"/>
-      <c r="AF23" s="70"/>
-      <c r="AG23" s="70"/>
-      <c r="AH23" s="70"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="103"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="105"/>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="68"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="68"/>
+      <c r="AG23" s="68"/>
+      <c r="AH23" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="K5:U5"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="K4:U4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:U6"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:U7"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="Z8:AH8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:U9"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:U8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:U10"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:U12"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="Z11:AH11"/>
-    <mergeCell ref="Z12:AH12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:U11"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K13:U13"/>
-    <mergeCell ref="Z13:AH13"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="K14:U14"/>
-    <mergeCell ref="Z14:AH14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="K15:U15"/>
-    <mergeCell ref="Z15:AH15"/>
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="V15:Y15"/>
-    <mergeCell ref="Z16:AH16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="K17:U17"/>
-    <mergeCell ref="Z17:AH17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="K16:U16"/>
-    <mergeCell ref="V16:Y16"/>
-    <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="Z21:AH21"/>
-    <mergeCell ref="Z19:AH19"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="Z20:AH20"/>
-    <mergeCell ref="Z23:AH23"/>
-    <mergeCell ref="K22:U22"/>
-    <mergeCell ref="Z22:AH22"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="K18:U18"/>
-    <mergeCell ref="Z18:AH18"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="V18:Y18"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="K23:U23"/>
@@ -11060,6 +11084,90 @@
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:U22"/>
+    <mergeCell ref="Z22:AH22"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="K18:U18"/>
+    <mergeCell ref="Z18:AH18"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="Z21:AH21"/>
+    <mergeCell ref="Z19:AH19"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="Z20:AH20"/>
+    <mergeCell ref="Z23:AH23"/>
+    <mergeCell ref="Z16:AH16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="K17:U17"/>
+    <mergeCell ref="Z17:AH17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="K16:U16"/>
+    <mergeCell ref="V16:Y16"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:U14"/>
+    <mergeCell ref="Z14:AH14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="K15:U15"/>
+    <mergeCell ref="Z15:AH15"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="V15:Y15"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K13:U13"/>
+    <mergeCell ref="Z13:AH13"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:U10"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:U12"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="Z11:AH11"/>
+    <mergeCell ref="Z12:AH12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:U11"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="Z8:AH8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:U9"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:U8"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:U6"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:U7"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="K5:U5"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="K4:U4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
